--- a/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.86461102551706</v>
+        <v>28.86461102551714</v>
       </c>
       <c r="C2">
         <v>21.99751665742847</v>
@@ -430,13 +430,13 @@
         <v>2.820601683998754</v>
       </c>
       <c r="E2">
-        <v>8.764276534336265</v>
+        <v>8.764276534336277</v>
       </c>
       <c r="F2">
-        <v>45.61257531884086</v>
+        <v>45.61257531884074</v>
       </c>
       <c r="G2">
-        <v>2.074715168610976</v>
+        <v>2.074715168610971</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.865327834273652</v>
+        <v>6.865327834273621</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.12687096324267</v>
+        <v>13.12687096324258</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85308874211872</v>
+        <v>26.85308874211867</v>
       </c>
       <c r="C3">
-        <v>20.39444251930758</v>
+        <v>20.39444251930752</v>
       </c>
       <c r="D3">
-        <v>2.762632464160278</v>
+        <v>2.762632464160336</v>
       </c>
       <c r="E3">
-        <v>8.430291007924529</v>
+        <v>8.430291007924561</v>
       </c>
       <c r="F3">
-        <v>43.51908948420516</v>
+        <v>43.51908948420505</v>
       </c>
       <c r="G3">
-        <v>2.089376518187093</v>
+        <v>2.089376518187089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.724840925024029</v>
+        <v>6.724840925024052</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.38292996361023</v>
+        <v>13.38292996361018</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -521,16 +521,16 @@
         <v>19.40500496920711</v>
       </c>
       <c r="D4">
-        <v>2.727210772888659</v>
+        <v>2.727210772888664</v>
       </c>
       <c r="E4">
-        <v>8.22703833984127</v>
+        <v>8.227038339841297</v>
       </c>
       <c r="F4">
-        <v>42.2475664148604</v>
+        <v>42.24756641486035</v>
       </c>
       <c r="G4">
-        <v>2.098516528588834</v>
+        <v>2.098516528588705</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.643591813585206</v>
+        <v>6.643591813585237</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.12512913934376</v>
+        <v>25.1251291393437</v>
       </c>
       <c r="C5">
-        <v>18.99609524366595</v>
+        <v>18.99609524366596</v>
       </c>
       <c r="D5">
-        <v>2.712830264912717</v>
+        <v>2.712830264912923</v>
       </c>
       <c r="E5">
-        <v>8.144717693288687</v>
+        <v>8.144717693288756</v>
       </c>
       <c r="F5">
-        <v>41.73307980755963</v>
+        <v>41.73307980755948</v>
       </c>
       <c r="G5">
-        <v>2.102281309883847</v>
+        <v>2.102281309884106</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.61112007684602</v>
+        <v>13.611120076846</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.04030550613779</v>
+        <v>25.04030550613781</v>
       </c>
       <c r="C6">
-        <v>18.92765434330053</v>
+        <v>18.9276543433005</v>
       </c>
       <c r="D6">
-        <v>2.710446010246229</v>
+        <v>2.710446010246244</v>
       </c>
       <c r="E6">
-        <v>8.131080740926674</v>
+        <v>8.13108074092664</v>
       </c>
       <c r="F6">
-        <v>41.64787869132076</v>
+        <v>41.6478786913209</v>
       </c>
       <c r="G6">
-        <v>2.102909023676101</v>
+        <v>2.10290902367584</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.606477725861136</v>
+        <v>6.606477725861125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.62227491299267</v>
+        <v>13.62227491299268</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.6256034811085</v>
+        <v>25.62560348110852</v>
       </c>
       <c r="C7">
-        <v>19.3995265724609</v>
+        <v>19.39952657246089</v>
       </c>
       <c r="D7">
-        <v>2.727016597615759</v>
+        <v>2.727016597615754</v>
       </c>
       <c r="E7">
         <v>8.225926007425278</v>
       </c>
       <c r="F7">
-        <v>42.2406126928645</v>
+        <v>42.24061269286452</v>
       </c>
       <c r="G7">
-        <v>2.098567132331949</v>
+        <v>2.09856713233168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54521432176046</v>
+        <v>13.54521432176047</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>21.45316910140033</v>
       </c>
       <c r="D8">
-        <v>2.80058432673345</v>
+        <v>2.800584326733434</v>
       </c>
       <c r="E8">
-        <v>8.648766343471063</v>
+        <v>8.648766343471012</v>
       </c>
       <c r="F8">
-        <v>44.88792721194977</v>
+        <v>44.88792721194973</v>
       </c>
       <c r="G8">
-        <v>2.079745271933322</v>
+        <v>2.079745271933455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.81582201401631</v>
+        <v>6.815822014016244</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.06644808866444</v>
+        <v>33.0664480886644</v>
       </c>
       <c r="C9">
-        <v>25.23788404614721</v>
+        <v>25.23788404614719</v>
       </c>
       <c r="D9">
-        <v>2.945834411536589</v>
+        <v>2.945834411536554</v>
       </c>
       <c r="E9">
-        <v>9.491156630766261</v>
+        <v>9.491156630766238</v>
       </c>
       <c r="F9">
-        <v>50.18924996019043</v>
+        <v>50.18924996019041</v>
       </c>
       <c r="G9">
-        <v>2.043646907459089</v>
+        <v>2.043646907459221</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59938828310887</v>
+        <v>12.59938828310893</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.45040191173332</v>
+        <v>36.45040191173338</v>
       </c>
       <c r="C10">
-        <v>27.85028984044466</v>
+        <v>27.85028984044465</v>
       </c>
       <c r="D10">
-        <v>3.052843550485517</v>
+        <v>3.052843550485621</v>
       </c>
       <c r="E10">
-        <v>10.11831285806629</v>
+        <v>10.1183128580663</v>
       </c>
       <c r="F10">
-        <v>54.16469580981229</v>
+        <v>54.16469580981232</v>
       </c>
       <c r="G10">
-        <v>2.01715850485146</v>
+        <v>2.017158504851466</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.505013751578849</v>
+        <v>7.505013751578837</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.17076475598841</v>
+        <v>12.1707647559885</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.94955495209415</v>
+        <v>37.94955495209416</v>
       </c>
       <c r="C11">
-        <v>29.0089082322113</v>
+        <v>29.00890823221125</v>
       </c>
       <c r="D11">
-        <v>3.101596271616952</v>
+        <v>3.101596271616863</v>
       </c>
       <c r="E11">
         <v>10.40608232616117</v>
       </c>
       <c r="F11">
-        <v>55.99830576163554</v>
+        <v>55.99830576163551</v>
       </c>
       <c r="G11">
-        <v>2.004988278922511</v>
+        <v>2.004988278922655</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.652857417261511</v>
+        <v>7.652857417261496</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.98174392544738</v>
+        <v>11.98174392544737</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.51229461016446</v>
+        <v>38.5122946101644</v>
       </c>
       <c r="C12">
-        <v>29.44406716454553</v>
+        <v>29.44406716454552</v>
       </c>
       <c r="D12">
-        <v>3.120075120446526</v>
+        <v>3.120075120446482</v>
       </c>
       <c r="E12">
-        <v>10.51551469496607</v>
+        <v>10.51551469496606</v>
       </c>
       <c r="F12">
-        <v>56.6972734594807</v>
+        <v>56.69727345948069</v>
       </c>
       <c r="G12">
-        <v>2.000349332327461</v>
+        <v>2.000349332327331</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.710024959684753</v>
+        <v>7.710024959684733</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.9111469768278</v>
+        <v>11.91114697682783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>38.39130397514911</v>
       </c>
       <c r="C13">
-        <v>29.35049467578994</v>
+        <v>29.35049467579</v>
       </c>
       <c r="D13">
-        <v>3.116094431021363</v>
+        <v>3.116094431021269</v>
       </c>
       <c r="E13">
-        <v>10.4919238284165</v>
+        <v>10.49192382841652</v>
       </c>
       <c r="F13">
-        <v>56.54651303338886</v>
+        <v>56.54651303338899</v>
       </c>
       <c r="G13">
-        <v>2.001349996724406</v>
+        <v>2.001349996724279</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.697658144743922</v>
+        <v>7.697658144743942</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.92630520433724</v>
+        <v>11.92630520433718</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.99594587143856</v>
+        <v>37.99594587143851</v>
       </c>
       <c r="C14">
-        <v>29.04477635498409</v>
+        <v>29.04477635498402</v>
       </c>
       <c r="D14">
-        <v>3.103116132145205</v>
+        <v>3.103116132145293</v>
       </c>
       <c r="E14">
-        <v>10.41507539973964</v>
+        <v>10.41507539973963</v>
       </c>
       <c r="F14">
-        <v>56.05571067144899</v>
+        <v>56.05571067144894</v>
       </c>
       <c r="G14">
-        <v>2.00460732175167</v>
+        <v>2.004607321751934</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.65753615596465</v>
+        <v>7.657536155964645</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.97591534096728</v>
+        <v>11.97591534096733</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.75315955433424</v>
+        <v>37.75315955433406</v>
       </c>
       <c r="C15">
-        <v>28.85707135240939</v>
+        <v>28.85707135240921</v>
       </c>
       <c r="D15">
-        <v>3.095169096117238</v>
+        <v>3.095169096117092</v>
       </c>
       <c r="E15">
-        <v>10.36806737179987</v>
+        <v>10.36806737179984</v>
       </c>
       <c r="F15">
-        <v>55.75571738272168</v>
+        <v>55.75571738272163</v>
       </c>
       <c r="G15">
-        <v>2.006598146345622</v>
+        <v>2.006598146345361</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.63311821662138</v>
+        <v>7.633118216621382</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.00643517934287</v>
+        <v>12.00643517934295</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.35168621384906</v>
+        <v>36.35168621384901</v>
       </c>
       <c r="C16">
-        <v>27.77402865657345</v>
+        <v>27.77402865657356</v>
       </c>
       <c r="D16">
-        <v>3.049659364626933</v>
+        <v>3.049659364626784</v>
       </c>
       <c r="E16">
-        <v>10.09956412094325</v>
+        <v>10.09956412094319</v>
       </c>
       <c r="F16">
-        <v>54.04544914820178</v>
+        <v>54.04544914820188</v>
       </c>
       <c r="G16">
-        <v>2.017950375118249</v>
+        <v>2.017950375117995</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.495510283216104</v>
+        <v>7.495510283216087</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.18324730592855</v>
+        <v>12.18324730592857</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.4821622569111</v>
+        <v>35.48216225691117</v>
       </c>
       <c r="C17">
-        <v>27.10244381374891</v>
+        <v>27.10244381374896</v>
       </c>
       <c r="D17">
-        <v>3.02176243722555</v>
+        <v>3.02176243722554</v>
       </c>
       <c r="E17">
-        <v>9.935539862063536</v>
+        <v>9.93553986206356</v>
       </c>
       <c r="F17">
-        <v>53.00330540160728</v>
+        <v>53.00330540160731</v>
       </c>
       <c r="G17">
-        <v>2.024875214386009</v>
+        <v>2.024875214386543</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.413064864348865</v>
+        <v>7.413064864348846</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.29331806078503</v>
+        <v>12.29331806078495</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.97819038155179</v>
+        <v>34.97819038155178</v>
       </c>
       <c r="C18">
-        <v>26.71331395395861</v>
+        <v>26.71331395395869</v>
       </c>
       <c r="D18">
-        <v>3.005723088730333</v>
+        <v>3.005723088730321</v>
       </c>
       <c r="E18">
-        <v>9.841421421076351</v>
+        <v>9.841421421076349</v>
       </c>
       <c r="F18">
-        <v>52.40618113799999</v>
+        <v>52.40618113799997</v>
       </c>
       <c r="G18">
-        <v>2.028847762091697</v>
+        <v>2.028847762091827</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.366333598146059</v>
+        <v>7.366333598146067</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.80687131056969</v>
+        <v>34.80687131056977</v>
       </c>
       <c r="C19">
-        <v>26.58105239624363</v>
+        <v>26.58105239624376</v>
       </c>
       <c r="D19">
-        <v>3.000293401138965</v>
+        <v>3.000293401138941</v>
       </c>
       <c r="E19">
-        <v>9.809590544155817</v>
+        <v>9.809590544155769</v>
       </c>
       <c r="F19">
-        <v>52.20437330657802</v>
+        <v>52.20437330657808</v>
       </c>
       <c r="G19">
-        <v>2.030191363853413</v>
+        <v>2.030191363853411</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.35062645470593</v>
+        <v>7.350626454705922</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.37889346828717</v>
+        <v>12.37889346828713</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.57511701849</v>
+        <v>35.57511701849002</v>
       </c>
       <c r="C20">
-        <v>27.17422572880211</v>
+        <v>27.17422572880193</v>
       </c>
       <c r="D20">
-        <v>3.024731438800133</v>
+        <v>3.024731438800258</v>
       </c>
       <c r="E20">
-        <v>9.952976730679017</v>
+        <v>9.952976730679023</v>
       </c>
       <c r="F20">
-        <v>53.11400029296887</v>
+        <v>53.11400029296897</v>
       </c>
       <c r="G20">
-        <v>2.024139220142639</v>
+        <v>2.024139220142377</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.421769240010991</v>
+        <v>7.421769240010996</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.28154298957599</v>
+        <v>12.281542989576</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.11219920660546</v>
+        <v>38.11219920660555</v>
       </c>
       <c r="C21">
-        <v>29.13466425147667</v>
+        <v>29.13466425147661</v>
       </c>
       <c r="D21">
-        <v>3.106927621734635</v>
+        <v>3.10692762173468</v>
       </c>
       <c r="E21">
-        <v>10.43763408436046</v>
+        <v>10.43763408436049</v>
       </c>
       <c r="F21">
-        <v>56.19973610456606</v>
+        <v>56.19973610456617</v>
       </c>
       <c r="G21">
-        <v>2.003651506329821</v>
+        <v>2.003651506329956</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.669287791661321</v>
+        <v>7.669287791661349</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.96131580587868</v>
+        <v>11.96131580587864</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.74195259409913</v>
+        <v>39.74195259409899</v>
       </c>
       <c r="C22">
-        <v>30.39546391954281</v>
+        <v>30.39546391954278</v>
       </c>
       <c r="D22">
         <v>3.160755882473512</v>
       </c>
       <c r="E22">
-        <v>10.75715311647693</v>
+        <v>10.75715311647692</v>
       </c>
       <c r="F22">
         <v>58.24410310642774</v>
       </c>
       <c r="G22">
-        <v>1.990076725029417</v>
+        <v>1.990076725029027</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.838024243207226</v>
+        <v>7.838024243207251</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.7578399173862</v>
+        <v>11.75783991738629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.8743982800805</v>
+        <v>38.87439828008041</v>
       </c>
       <c r="C23">
-        <v>29.72415380740737</v>
+        <v>29.72415380740731</v>
       </c>
       <c r="D23">
-        <v>3.132012961773325</v>
+        <v>3.132012961773182</v>
       </c>
       <c r="E23">
-        <v>10.58631920977527</v>
+        <v>10.58631920977529</v>
       </c>
       <c r="F23">
-        <v>57.15002776847609</v>
+        <v>57.15002776847599</v>
       </c>
       <c r="G23">
         <v>1.997343751546463</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.747282119642006</v>
+        <v>7.747282119642048</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.86585391742304</v>
+        <v>11.86585391742305</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.53310491079248</v>
+        <v>35.53310491079246</v>
       </c>
       <c r="C24">
-        <v>27.14178260307076</v>
+        <v>27.14178260307071</v>
       </c>
       <c r="D24">
-        <v>3.023389156782474</v>
+        <v>3.023389156782486</v>
       </c>
       <c r="E24">
-        <v>9.9450929648384</v>
+        <v>9.94509296483845</v>
       </c>
       <c r="F24">
         <v>53.06394891745833</v>
       </c>
       <c r="G24">
-        <v>2.024471989094658</v>
+        <v>2.024471989094655</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.417831920366925</v>
+        <v>7.41783192036695</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.28686470083882</v>
+        <v>12.28686470083893</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.77996403096954</v>
+        <v>31.77996403096966</v>
       </c>
       <c r="C25">
-        <v>24.24550319749287</v>
+        <v>24.24550319749286</v>
       </c>
       <c r="D25">
-        <v>2.906477827921251</v>
+        <v>2.906477827921229</v>
       </c>
       <c r="E25">
-        <v>9.261931966384145</v>
+        <v>9.261931966384161</v>
       </c>
       <c r="F25">
         <v>48.74267553387129</v>
       </c>
       <c r="G25">
-        <v>2.053369004014087</v>
+        <v>2.053369004013559</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.088558200846635</v>
+        <v>7.088558200846664</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.76190586329632</v>
+        <v>12.76190586329625</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.86461102551714</v>
+        <v>22.39890681158893</v>
       </c>
       <c r="C2">
-        <v>21.99751665742847</v>
+        <v>17.98607644295976</v>
       </c>
       <c r="D2">
-        <v>2.820601683998754</v>
+        <v>7.052806819638911</v>
       </c>
       <c r="E2">
-        <v>8.764276534336277</v>
+        <v>12.11684103066032</v>
       </c>
       <c r="F2">
-        <v>45.61257531884074</v>
+        <v>29.27740648877255</v>
       </c>
       <c r="G2">
-        <v>2.074715168610971</v>
+        <v>36.2397825014292</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.263229682485083</v>
       </c>
       <c r="J2">
-        <v>6.865327834273621</v>
+        <v>11.29128262599177</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.06943734567164</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.683091575338347</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.12687096324258</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>11.58528851478012</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85308874211867</v>
+        <v>20.88453403043946</v>
       </c>
       <c r="C3">
-        <v>20.39444251930752</v>
+        <v>16.76693767348856</v>
       </c>
       <c r="D3">
-        <v>2.762632464160336</v>
+        <v>6.743699946725387</v>
       </c>
       <c r="E3">
-        <v>8.430291007924561</v>
+        <v>11.54450536865697</v>
       </c>
       <c r="F3">
-        <v>43.51908948420505</v>
+        <v>28.16026250257391</v>
       </c>
       <c r="G3">
-        <v>2.089376518187089</v>
+        <v>34.59052530453699</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.958437568084559</v>
       </c>
       <c r="J3">
-        <v>6.724840925024052</v>
+        <v>11.08184292942991</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.94739239396766</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.427402043129529</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.38292996361018</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>11.749398014311</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.63240508187923</v>
+        <v>19.89970102183775</v>
       </c>
       <c r="C4">
-        <v>19.40500496920711</v>
+        <v>15.97441232614458</v>
       </c>
       <c r="D4">
-        <v>2.727210772888664</v>
+        <v>6.54675839410275</v>
       </c>
       <c r="E4">
-        <v>8.227038339841297</v>
+        <v>11.17876607235139</v>
       </c>
       <c r="F4">
-        <v>42.24756641486035</v>
+        <v>27.46878221265139</v>
       </c>
       <c r="G4">
-        <v>2.098516528588705</v>
+        <v>33.56648876839363</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.765236513014795</v>
       </c>
       <c r="J4">
-        <v>6.643591813585237</v>
+        <v>10.95816659522839</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.8842892050696</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.26547741638382</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.54431758275648</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>11.8525082945732</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.1251291393437</v>
+        <v>19.48445532980973</v>
       </c>
       <c r="C5">
-        <v>18.99609524366596</v>
+        <v>15.64032199030584</v>
       </c>
       <c r="D5">
-        <v>2.712830264912923</v>
+        <v>6.46476314536465</v>
       </c>
       <c r="E5">
-        <v>8.144717693288756</v>
+        <v>11.02619782948226</v>
       </c>
       <c r="F5">
-        <v>41.73307980755948</v>
+        <v>27.18592877024154</v>
       </c>
       <c r="G5">
-        <v>2.102281309884106</v>
+        <v>33.14682923120937</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.684945389129932</v>
       </c>
       <c r="J5">
-        <v>6.61170076140222</v>
+        <v>10.90901009438446</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.86143526573397</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.198283358185534</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.611120076846</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>11.89512633062531</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.04030550613781</v>
+        <v>19.41466093767136</v>
       </c>
       <c r="C6">
-        <v>18.9276543433005</v>
+        <v>15.58417221022274</v>
       </c>
       <c r="D6">
-        <v>2.710446010246244</v>
+        <v>6.451044696390682</v>
       </c>
       <c r="E6">
-        <v>8.13108074092664</v>
+        <v>11.00065353323301</v>
       </c>
       <c r="F6">
-        <v>41.6478786913209</v>
+        <v>27.13890674823647</v>
       </c>
       <c r="G6">
-        <v>2.10290902367584</v>
+        <v>33.0770189485558</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.671517833332113</v>
       </c>
       <c r="J6">
-        <v>6.606477725861125</v>
+        <v>10.9009228492026</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.85780976509326</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.187053859012569</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.62227491299268</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>11.90223953492489</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.62560348110852</v>
+        <v>19.89415734288794</v>
       </c>
       <c r="C7">
-        <v>19.39952657246089</v>
+        <v>15.9699518277124</v>
       </c>
       <c r="D7">
-        <v>2.727016597615754</v>
+        <v>6.545659538787635</v>
       </c>
       <c r="E7">
-        <v>8.225926007425278</v>
+        <v>11.1767226504707</v>
       </c>
       <c r="F7">
-        <v>42.24061269286452</v>
+        <v>27.46497142763095</v>
       </c>
       <c r="G7">
-        <v>2.09856713233168</v>
+        <v>33.56083791248935</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.764160043393986</v>
       </c>
       <c r="J7">
-        <v>6.643156837916752</v>
+        <v>10.95749861704632</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.883969558494</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.264576061884004</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54521432176047</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>11.85308061488494</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.1585584109561</v>
+        <v>21.88811348945847</v>
       </c>
       <c r="C8">
-        <v>21.45316910140033</v>
+        <v>17.57479849188604</v>
       </c>
       <c r="D8">
-        <v>2.800584326733434</v>
+        <v>6.947741857276634</v>
       </c>
       <c r="E8">
-        <v>8.648766343471012</v>
+        <v>11.92251214696089</v>
       </c>
       <c r="F8">
-        <v>44.88792721194973</v>
+        <v>28.89355162627679</v>
       </c>
       <c r="G8">
-        <v>2.079745271933455</v>
+        <v>35.67376361958804</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.159371792683118</v>
       </c>
       <c r="J8">
-        <v>6.815822014016244</v>
+        <v>11.21805041606784</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.02483288988094</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.595970293609514</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.21428593467397</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>11.64139231362737</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.0664480886644</v>
+        <v>25.36587610420815</v>
       </c>
       <c r="C9">
-        <v>25.23788404614719</v>
+        <v>20.37641822282821</v>
       </c>
       <c r="D9">
-        <v>2.945834411536554</v>
+        <v>7.677490451917572</v>
       </c>
       <c r="E9">
-        <v>9.491156630766238</v>
+        <v>13.26892330301904</v>
       </c>
       <c r="F9">
-        <v>50.18924996019041</v>
+        <v>31.63854734884039</v>
       </c>
       <c r="G9">
-        <v>2.043646907459221</v>
+        <v>39.70837217003687</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.888084756898835</v>
       </c>
       <c r="J9">
-        <v>7.196307068054894</v>
+        <v>11.76773441249901</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.39983584221168</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.205609469490156</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.59938828310893</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>11.2444534197629</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.45040191173338</v>
+        <v>27.60144761712217</v>
       </c>
       <c r="C10">
-        <v>27.85028984044465</v>
+        <v>22.14069647189768</v>
       </c>
       <c r="D10">
-        <v>3.052843550485621</v>
+        <v>8.09813916301356</v>
       </c>
       <c r="E10">
-        <v>10.1183128580663</v>
+        <v>13.96925999363196</v>
       </c>
       <c r="F10">
-        <v>54.16469580981232</v>
+        <v>33.37104599472388</v>
       </c>
       <c r="G10">
-        <v>2.017158504851466</v>
+        <v>42.29781697265056</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.377354406331977</v>
       </c>
       <c r="J10">
-        <v>7.505013751578837</v>
+        <v>12.13443048364274</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.6534143444431</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.516806788950818</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.1707647559885</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>10.97623638525931</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.94955495209416</v>
+        <v>28.03767307836643</v>
       </c>
       <c r="C11">
-        <v>29.00890823221125</v>
+        <v>22.14678572841441</v>
       </c>
       <c r="D11">
-        <v>3.101596271616863</v>
+        <v>7.622694470125377</v>
       </c>
       <c r="E11">
-        <v>10.40608232616117</v>
+        <v>12.46981007052899</v>
       </c>
       <c r="F11">
-        <v>55.99830576163551</v>
+        <v>32.11026090041244</v>
       </c>
       <c r="G11">
-        <v>2.004988278922655</v>
+        <v>40.96785129086344</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.978412441489337</v>
       </c>
       <c r="J11">
-        <v>7.652857417261496</v>
+        <v>11.78148530562026</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.01452438745521</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.747838301367999</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.98174392544737</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>10.98514265911399</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.5122946101644</v>
+        <v>27.94777407337763</v>
       </c>
       <c r="C12">
-        <v>29.44406716454552</v>
+        <v>21.78812354013095</v>
       </c>
       <c r="D12">
-        <v>3.120075120446482</v>
+        <v>7.141668510421615</v>
       </c>
       <c r="E12">
-        <v>10.51551469496606</v>
+        <v>11.13278699040404</v>
       </c>
       <c r="F12">
-        <v>56.69727345948069</v>
+        <v>30.65320353810245</v>
       </c>
       <c r="G12">
-        <v>2.000349332327331</v>
+        <v>39.26835946981541</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.951812153084291</v>
       </c>
       <c r="J12">
-        <v>7.710024959684733</v>
+        <v>11.39569530013233</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.40646067385679</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.113022323299158</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.91114697682783</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>11.06750999220447</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.39130397514911</v>
+        <v>27.44569022087192</v>
       </c>
       <c r="C13">
-        <v>29.35049467579</v>
+        <v>21.11610097327673</v>
       </c>
       <c r="D13">
-        <v>3.116094431021269</v>
+        <v>6.619461719840015</v>
       </c>
       <c r="E13">
-        <v>10.49192382841652</v>
+        <v>9.845523290865374</v>
       </c>
       <c r="F13">
-        <v>56.54651303338899</v>
+        <v>28.92134600364724</v>
       </c>
       <c r="G13">
-        <v>2.001349996724279</v>
+        <v>37.12745677432262</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.0694611850213</v>
       </c>
       <c r="J13">
-        <v>7.697658144743942</v>
+        <v>10.9554434550861</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.77998096194394</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.557827921501409</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.92630520433718</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>11.20439405010343</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.99594587143851</v>
+        <v>26.90103791717773</v>
       </c>
       <c r="C14">
-        <v>29.04477635498402</v>
+        <v>20.49457860796942</v>
       </c>
       <c r="D14">
-        <v>3.103116132145293</v>
+        <v>6.235274355822047</v>
       </c>
       <c r="E14">
-        <v>10.41507539973963</v>
+        <v>9.002738066040642</v>
       </c>
       <c r="F14">
-        <v>56.05571067144894</v>
+        <v>27.56924789012787</v>
       </c>
       <c r="G14">
-        <v>2.004607321751934</v>
+        <v>35.40337117648839</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.909547307591348</v>
       </c>
       <c r="J14">
-        <v>7.657536155964645</v>
+        <v>10.62143227936786</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.33495255697937</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.233554427579452</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.97591534096733</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>11.32392689210451</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.75315955433406</v>
+        <v>26.67807926518546</v>
       </c>
       <c r="C15">
-        <v>28.85707135240921</v>
+        <v>20.27364204383365</v>
       </c>
       <c r="D15">
-        <v>3.095169096117092</v>
+        <v>6.131211864321741</v>
       </c>
       <c r="E15">
-        <v>10.36806737179984</v>
+        <v>8.798915097640458</v>
       </c>
       <c r="F15">
-        <v>55.75571738272163</v>
+        <v>27.18224351326462</v>
       </c>
       <c r="G15">
-        <v>2.006598146345361</v>
+        <v>34.88788882513262</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.099452043513916</v>
       </c>
       <c r="J15">
-        <v>7.633118216621382</v>
+        <v>10.52983273830359</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.22536833776005</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.161087109879014</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.00643517934295</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.36137633957091</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.35168621384901</v>
+        <v>25.8274837437435</v>
       </c>
       <c r="C16">
-        <v>27.77402865657356</v>
+        <v>19.6327762547785</v>
       </c>
       <c r="D16">
-        <v>3.049659364626784</v>
+        <v>6.033959968849468</v>
       </c>
       <c r="E16">
-        <v>10.09956412094319</v>
+        <v>8.695684639133832</v>
       </c>
       <c r="F16">
-        <v>54.04544914820188</v>
+        <v>26.71062095200333</v>
       </c>
       <c r="G16">
-        <v>2.017950375117995</v>
+        <v>34.08360987850655</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.799496889072263</v>
       </c>
       <c r="J16">
-        <v>7.495510283216087</v>
+        <v>10.4495863518631</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.23299603275508</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.122685794338431</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.18324730592857</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.43133505202804</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.48216225691117</v>
+        <v>25.46550472025645</v>
       </c>
       <c r="C17">
-        <v>27.10244381374896</v>
+        <v>19.47923540593994</v>
       </c>
       <c r="D17">
-        <v>3.02176243722554</v>
+        <v>6.167081186252234</v>
       </c>
       <c r="E17">
-        <v>9.93553986206356</v>
+        <v>9.054397425201639</v>
       </c>
       <c r="F17">
-        <v>53.00330540160731</v>
+        <v>27.09258376231207</v>
       </c>
       <c r="G17">
-        <v>2.024875214386543</v>
+        <v>34.42340389903342</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.068212334745733</v>
       </c>
       <c r="J17">
-        <v>7.413064864348846</v>
+        <v>10.56960808084276</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.47813091908799</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.252805583298649</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.29331806078495</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>11.42409852942527</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.97819038155178</v>
+        <v>25.49621255573615</v>
       </c>
       <c r="C18">
-        <v>26.71331395395869</v>
+        <v>19.7386250120009</v>
       </c>
       <c r="D18">
-        <v>3.005723088730321</v>
+        <v>6.52573669518738</v>
       </c>
       <c r="E18">
-        <v>9.841421421076349</v>
+        <v>9.954793534578551</v>
       </c>
       <c r="F18">
-        <v>52.40618113799997</v>
+        <v>28.24527213628177</v>
       </c>
       <c r="G18">
-        <v>2.028847762091827</v>
+        <v>35.77784637303445</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.943656534950072</v>
       </c>
       <c r="J18">
-        <v>7.366333598146067</v>
+        <v>10.87150814986553</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.94996845510975</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.617418350445517</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.35717945703722</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>11.35652345548595</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.80687131056977</v>
+        <v>25.84054243092721</v>
       </c>
       <c r="C19">
-        <v>26.58105239624376</v>
+        <v>20.30750004009301</v>
       </c>
       <c r="D19">
-        <v>3.000293401138941</v>
+        <v>7.049810557765521</v>
       </c>
       <c r="E19">
-        <v>9.809590544155769</v>
+        <v>11.32496282472607</v>
       </c>
       <c r="F19">
-        <v>52.20437330657808</v>
+        <v>29.9135435549916</v>
       </c>
       <c r="G19">
-        <v>2.030191363853411</v>
+        <v>37.81689042721248</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.797639135251249</v>
       </c>
       <c r="J19">
-        <v>7.350626454705922</v>
+        <v>11.29404141503583</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.56938726160198</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.232633240484169</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.37889346828713</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>11.25404245970958</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.57511701849002</v>
+        <v>27.02821142805967</v>
       </c>
       <c r="C20">
-        <v>27.17422572880193</v>
+        <v>21.68625210101186</v>
       </c>
       <c r="D20">
-        <v>3.024731438800258</v>
+        <v>7.986285332406448</v>
       </c>
       <c r="E20">
-        <v>9.952976730679023</v>
+        <v>13.77903097595101</v>
       </c>
       <c r="F20">
-        <v>53.11400029296897</v>
+        <v>32.90801409115198</v>
       </c>
       <c r="G20">
-        <v>2.024139220142377</v>
+        <v>41.6093432459469</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.2485588959748</v>
       </c>
       <c r="J20">
-        <v>7.421769240010996</v>
+        <v>12.03381502822347</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.57815774248826</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.431308926778385</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.281542989576</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>11.04626707954336</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.11219920660555</v>
+        <v>28.7599336000569</v>
       </c>
       <c r="C21">
-        <v>29.13466425147661</v>
+        <v>23.11409840211712</v>
       </c>
       <c r="D21">
-        <v>3.10692762173468</v>
+        <v>8.417588152154659</v>
       </c>
       <c r="E21">
-        <v>10.43763408436049</v>
+        <v>14.62929298162499</v>
       </c>
       <c r="F21">
-        <v>56.19973610456617</v>
+        <v>34.58615987998522</v>
       </c>
       <c r="G21">
-        <v>2.003651506329956</v>
+        <v>44.01509535623135</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.649486596504345</v>
       </c>
       <c r="J21">
-        <v>7.669287791661349</v>
+        <v>12.41600605586194</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.93251170285463</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.834483952209716</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.96131580587864</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>10.82390927680974</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.74195259409899</v>
+        <v>29.81466300316781</v>
       </c>
       <c r="C22">
-        <v>30.39546391954278</v>
+        <v>23.96564140666</v>
       </c>
       <c r="D22">
-        <v>3.160755882473512</v>
+        <v>8.652233960019039</v>
       </c>
       <c r="E22">
-        <v>10.75715311647692</v>
+        <v>15.0600960848051</v>
       </c>
       <c r="F22">
-        <v>58.24410310642774</v>
+        <v>35.5500797798136</v>
       </c>
       <c r="G22">
-        <v>1.990076725029027</v>
+        <v>45.41963688795288</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.896590868126608</v>
       </c>
       <c r="J22">
-        <v>7.838024243207251</v>
+        <v>12.6390092161649</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.13268135419328</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.036017553723338</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.75783991738629</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>10.68675973280249</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.87439828008041</v>
+        <v>29.25582942331473</v>
       </c>
       <c r="C23">
-        <v>29.72415380740731</v>
+        <v>23.51441394435913</v>
       </c>
       <c r="D23">
-        <v>3.132012961773182</v>
+        <v>8.52765797222461</v>
       </c>
       <c r="E23">
-        <v>10.58631920977529</v>
+        <v>14.8313942329743</v>
       </c>
       <c r="F23">
-        <v>57.15002776847599</v>
+        <v>35.03667930264374</v>
       </c>
       <c r="G23">
-        <v>1.997343751546463</v>
+        <v>44.67173738642862</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.765034243223422</v>
       </c>
       <c r="J23">
-        <v>7.747282119642048</v>
+        <v>12.5196091757519</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.02455468979577</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.928894840142327</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.86585391742305</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>10.75980050627564</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.53310491079246</v>
+        <v>27.04875138857967</v>
       </c>
       <c r="C24">
-        <v>27.14178260307071</v>
+        <v>21.73337843085435</v>
       </c>
       <c r="D24">
-        <v>3.023389156782486</v>
+        <v>8.041418379360227</v>
       </c>
       <c r="E24">
-        <v>9.94509296483845</v>
+        <v>13.93826047485242</v>
       </c>
       <c r="F24">
-        <v>53.06394891745833</v>
+        <v>33.06948468362854</v>
       </c>
       <c r="G24">
-        <v>2.024471989094655</v>
+        <v>41.80167380896982</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.259258854337604</v>
       </c>
       <c r="J24">
-        <v>7.41783192036695</v>
+        <v>12.07573743082068</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.64288957186829</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.51354001734742</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.28686470083893</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>11.03995358766244</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.77996403096966</v>
+        <v>24.47075498680519</v>
       </c>
       <c r="C25">
-        <v>24.24550319749286</v>
+        <v>19.65500018314227</v>
       </c>
       <c r="D25">
-        <v>2.906477827921229</v>
+        <v>7.486603970957731</v>
       </c>
       <c r="E25">
-        <v>9.261931966384161</v>
+        <v>12.9173862349778</v>
       </c>
       <c r="F25">
-        <v>48.74267553387129</v>
+        <v>30.90356814159813</v>
       </c>
       <c r="G25">
-        <v>2.053369004013559</v>
+        <v>38.63083360501845</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.695644374972949</v>
       </c>
       <c r="J25">
-        <v>7.088558200846664</v>
+        <v>11.61492354866703</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.28714017935221</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.045124411426</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.76190586329625</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.34995193120742</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_47/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.39890681158893</v>
+        <v>21.83046355535414</v>
       </c>
       <c r="C2">
-        <v>17.98607644295976</v>
+        <v>18.64623550218901</v>
       </c>
       <c r="D2">
-        <v>7.052806819638911</v>
+        <v>7.216412750137898</v>
       </c>
       <c r="E2">
-        <v>12.11684103066032</v>
+        <v>12.15561303693557</v>
       </c>
       <c r="F2">
-        <v>29.27740648877255</v>
+        <v>28.34863597897048</v>
       </c>
       <c r="G2">
-        <v>36.2397825014292</v>
+        <v>34.04870777626665</v>
       </c>
       <c r="H2">
-        <v>2.263229682485083</v>
+        <v>2.20635832198575</v>
       </c>
       <c r="J2">
-        <v>11.29128262599177</v>
+        <v>11.45736705262739</v>
       </c>
       <c r="K2">
-        <v>15.06943734567164</v>
+        <v>14.3105985258942</v>
       </c>
       <c r="L2">
-        <v>7.683091575338347</v>
+        <v>12.85264419592801</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.554100808049954</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.636414137378591</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.58528851478012</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>11.65842318951509</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.88453403043946</v>
+        <v>20.4020730166908</v>
       </c>
       <c r="C3">
-        <v>16.76693767348856</v>
+        <v>17.34341164006133</v>
       </c>
       <c r="D3">
-        <v>6.743699946725387</v>
+        <v>6.897623943295803</v>
       </c>
       <c r="E3">
-        <v>11.54450536865697</v>
+        <v>11.59398964760577</v>
       </c>
       <c r="F3">
-        <v>28.16026250257391</v>
+        <v>27.34498141154338</v>
       </c>
       <c r="G3">
-        <v>34.59052530453699</v>
+        <v>32.59919496010629</v>
       </c>
       <c r="H3">
-        <v>1.958437568084559</v>
+        <v>1.925598984511466</v>
       </c>
       <c r="J3">
-        <v>11.08184292942991</v>
+        <v>11.25288093105483</v>
       </c>
       <c r="K3">
-        <v>14.94739239396766</v>
+        <v>14.2643057726869</v>
       </c>
       <c r="L3">
-        <v>7.427402043129529</v>
+        <v>12.94882003510772</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.328819567898012</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.39444812087607</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.749398014311</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>11.78184072670869</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.89970102183775</v>
+        <v>19.47229313023815</v>
       </c>
       <c r="C4">
-        <v>15.97441232614458</v>
+        <v>16.49601017176402</v>
       </c>
       <c r="D4">
-        <v>6.54675839410275</v>
+        <v>6.694872249575192</v>
       </c>
       <c r="E4">
-        <v>11.17876607235139</v>
+        <v>11.2353204377144</v>
       </c>
       <c r="F4">
-        <v>27.46878221265139</v>
+        <v>26.72259838083578</v>
       </c>
       <c r="G4">
-        <v>33.56648876839363</v>
+        <v>31.70240444481902</v>
       </c>
       <c r="H4">
-        <v>1.765236513014795</v>
+        <v>1.747401280605001</v>
       </c>
       <c r="J4">
-        <v>10.95816659522839</v>
+        <v>11.12820300358669</v>
       </c>
       <c r="K4">
-        <v>14.8842892050696</v>
+        <v>14.24462365794715</v>
       </c>
       <c r="L4">
-        <v>7.26547741638382</v>
+        <v>13.00929885201807</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.220648867185606</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.24125198161815</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.8525082945732</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>11.86049750614726</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.48445532980973</v>
+        <v>19.08006881203713</v>
       </c>
       <c r="C5">
-        <v>15.64032199030584</v>
+        <v>16.1386799075586</v>
       </c>
       <c r="D5">
-        <v>6.46476314536465</v>
+        <v>6.610562428080574</v>
       </c>
       <c r="E5">
-        <v>11.02619782948226</v>
+        <v>11.08577407323006</v>
       </c>
       <c r="F5">
-        <v>27.18592877024154</v>
+        <v>26.46769489955661</v>
       </c>
       <c r="G5">
-        <v>33.14682923120937</v>
+        <v>31.3356497809173</v>
       </c>
       <c r="H5">
-        <v>1.684945389129932</v>
+        <v>1.673293009642143</v>
       </c>
       <c r="J5">
-        <v>10.90901009438446</v>
+        <v>11.07763849531462</v>
       </c>
       <c r="K5">
-        <v>14.86143526573397</v>
+        <v>14.23869482980689</v>
       </c>
       <c r="L5">
-        <v>7.198283358185534</v>
+        <v>13.03429794097068</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.184302862667044</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.177692827217028</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.89512633062531</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>11.89327089455899</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.41466093767136</v>
+        <v>19.01413308870989</v>
       </c>
       <c r="C6">
-        <v>15.58417221022274</v>
+        <v>16.07861817840336</v>
       </c>
       <c r="D6">
-        <v>6.451044696390682</v>
+        <v>6.596463454622629</v>
       </c>
       <c r="E6">
-        <v>11.00065353323301</v>
+        <v>11.06074056686814</v>
       </c>
       <c r="F6">
-        <v>27.13890674823647</v>
+        <v>26.42529946284263</v>
       </c>
       <c r="G6">
-        <v>33.0770189485558</v>
+        <v>31.27468424439002</v>
       </c>
       <c r="H6">
-        <v>1.671517833332113</v>
+        <v>1.660896459296591</v>
       </c>
       <c r="J6">
-        <v>10.9009228492026</v>
+        <v>11.06925760917638</v>
       </c>
       <c r="K6">
-        <v>14.85780976509326</v>
+        <v>14.2378335839921</v>
       </c>
       <c r="L6">
-        <v>7.187053859012569</v>
+        <v>13.03847022968167</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.178737430813239</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.167071657958357</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.90223953492489</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>11.89875629771661</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.89415734288794</v>
+        <v>19.4577779975617</v>
       </c>
       <c r="C7">
-        <v>15.9699518277124</v>
+        <v>16.47444113271918</v>
       </c>
       <c r="D7">
-        <v>6.545659538787635</v>
+        <v>6.698391596133983</v>
       </c>
       <c r="E7">
-        <v>11.1767226504707</v>
+        <v>11.23488442027883</v>
       </c>
       <c r="F7">
-        <v>27.46497142763095</v>
+        <v>26.69523217126925</v>
       </c>
       <c r="G7">
-        <v>33.56083791248935</v>
+        <v>31.78353715176553</v>
       </c>
       <c r="H7">
-        <v>1.764160043393986</v>
+        <v>1.745548155388059</v>
       </c>
       <c r="J7">
-        <v>10.95749861704632</v>
+        <v>11.07008608930355</v>
       </c>
       <c r="K7">
-        <v>14.883969558494</v>
+        <v>14.23366384119125</v>
       </c>
       <c r="L7">
-        <v>7.264576061884004</v>
+        <v>13.00079488836699</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.212239896215671</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.239477986458227</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.85308061488494</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>11.86206784216537</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.88811348945847</v>
+        <v>21.32044387704448</v>
       </c>
       <c r="C8">
-        <v>17.57479849188604</v>
+        <v>18.15549973253779</v>
       </c>
       <c r="D8">
-        <v>6.947741857276634</v>
+        <v>7.122750117507666</v>
       </c>
       <c r="E8">
-        <v>11.92251214696089</v>
+        <v>11.96991527340954</v>
       </c>
       <c r="F8">
-        <v>28.89355162627679</v>
+        <v>27.92795408090019</v>
       </c>
       <c r="G8">
-        <v>35.67376361958804</v>
+        <v>33.82223080312235</v>
       </c>
       <c r="H8">
-        <v>2.159371792683118</v>
+        <v>2.108062199985607</v>
       </c>
       <c r="J8">
-        <v>11.21805041606784</v>
+        <v>11.20068851520612</v>
       </c>
       <c r="K8">
-        <v>15.02483288988094</v>
+        <v>14.25709785129705</v>
       </c>
       <c r="L8">
-        <v>7.595970293609514</v>
+        <v>12.85819272725204</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.442228770624107</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.551080977094634</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.64139231362737</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>11.70469309289437</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.36587610420815</v>
+        <v>24.59181179351976</v>
       </c>
       <c r="C9">
-        <v>20.37641822282821</v>
+        <v>21.14030557490319</v>
       </c>
       <c r="D9">
-        <v>7.677490451917572</v>
+        <v>7.87925280355786</v>
       </c>
       <c r="E9">
-        <v>13.26892330301904</v>
+        <v>13.2925698637446</v>
       </c>
       <c r="F9">
-        <v>31.63854734884039</v>
+        <v>30.3750245200198</v>
       </c>
       <c r="G9">
-        <v>39.70837217003687</v>
+        <v>37.43128713507284</v>
       </c>
       <c r="H9">
-        <v>2.888084756898835</v>
+        <v>2.777395607622702</v>
       </c>
       <c r="J9">
-        <v>11.76773441249901</v>
+        <v>11.6727504125651</v>
       </c>
       <c r="K9">
-        <v>15.39983584221168</v>
+        <v>14.41698123582963</v>
       </c>
       <c r="L9">
-        <v>8.205609469490156</v>
+        <v>12.6223875285544</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.151848321269473</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.127558173161143</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.2444534197629</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>11.41511360448875</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.60144761712217</v>
+        <v>26.65153012602548</v>
       </c>
       <c r="C10">
-        <v>22.14069647189768</v>
+        <v>22.94046480708172</v>
       </c>
       <c r="D10">
-        <v>8.09813916301356</v>
+        <v>8.337680214100159</v>
       </c>
       <c r="E10">
-        <v>13.96925999363196</v>
+        <v>13.98204501304016</v>
       </c>
       <c r="F10">
-        <v>33.37104599472388</v>
+        <v>31.78729391425457</v>
       </c>
       <c r="G10">
-        <v>42.29781697265056</v>
+        <v>40.16555326170899</v>
       </c>
       <c r="H10">
-        <v>3.377354406331977</v>
+        <v>3.22101016678179</v>
       </c>
       <c r="J10">
-        <v>12.13443048364274</v>
+        <v>11.66701670669824</v>
       </c>
       <c r="K10">
-        <v>15.6534143444431</v>
+        <v>14.45214886203104</v>
       </c>
       <c r="L10">
-        <v>8.516806788950818</v>
+        <v>12.36574119775396</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.680080543695963</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.411966015819948</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>10.97623638525931</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>11.24170397098714</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.03767307836643</v>
+        <v>27.00502657957837</v>
       </c>
       <c r="C11">
-        <v>22.14678572841441</v>
+        <v>22.7671009507329</v>
       </c>
       <c r="D11">
-        <v>7.622694470125377</v>
+        <v>7.881409479402761</v>
       </c>
       <c r="E11">
-        <v>12.46981007052899</v>
+        <v>12.46620010404501</v>
       </c>
       <c r="F11">
-        <v>32.11026090041244</v>
+        <v>30.31190790000123</v>
       </c>
       <c r="G11">
-        <v>40.96785129086344</v>
+        <v>39.79187066737148</v>
       </c>
       <c r="H11">
-        <v>3.978412441489337</v>
+        <v>3.831652742431241</v>
       </c>
       <c r="J11">
-        <v>11.78148530562026</v>
+        <v>10.71364859518342</v>
       </c>
       <c r="K11">
-        <v>15.01452438745521</v>
+        <v>13.73959643036788</v>
       </c>
       <c r="L11">
-        <v>7.747838301367999</v>
+        <v>11.76271657734315</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.296177689344912</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.630524192270085</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>10.98514265911399</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>11.33141480612286</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.94777407337763</v>
+        <v>26.90655174579701</v>
       </c>
       <c r="C12">
-        <v>21.78812354013095</v>
+        <v>22.29368807330854</v>
       </c>
       <c r="D12">
-        <v>7.141668510421615</v>
+        <v>7.390506489601617</v>
       </c>
       <c r="E12">
-        <v>11.13278699040404</v>
+        <v>11.10510315611824</v>
       </c>
       <c r="F12">
-        <v>30.65320353810245</v>
+        <v>28.81547894159031</v>
       </c>
       <c r="G12">
-        <v>39.26835946981541</v>
+        <v>38.62399402942217</v>
       </c>
       <c r="H12">
-        <v>4.951812153084291</v>
+        <v>4.834726744016018</v>
       </c>
       <c r="J12">
-        <v>11.39569530013233</v>
+        <v>10.1042564048409</v>
       </c>
       <c r="K12">
-        <v>14.40646067385679</v>
+        <v>13.15973747372839</v>
       </c>
       <c r="L12">
-        <v>7.113022323299158</v>
+        <v>11.3411043856436</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.873033493933892</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.994423553723738</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>11.06750999220447</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>11.45444646847841</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.44569022087192</v>
+        <v>26.46999322887407</v>
       </c>
       <c r="C13">
-        <v>21.11610097327673</v>
+        <v>21.57758047451089</v>
       </c>
       <c r="D13">
-        <v>6.619461719840015</v>
+        <v>6.827254314996758</v>
       </c>
       <c r="E13">
-        <v>9.845523290865374</v>
+        <v>9.784673381971276</v>
       </c>
       <c r="F13">
-        <v>28.92134600364724</v>
+        <v>27.22754105920668</v>
       </c>
       <c r="G13">
-        <v>37.12745677432262</v>
+        <v>36.54974142944498</v>
       </c>
       <c r="H13">
-        <v>6.0694611850213</v>
+        <v>5.982288015725515</v>
       </c>
       <c r="J13">
-        <v>10.9554434550861</v>
+        <v>9.818867653288956</v>
       </c>
       <c r="K13">
-        <v>13.77998096194394</v>
+        <v>12.66648676342305</v>
       </c>
       <c r="L13">
-        <v>6.557827921501409</v>
+        <v>11.03599997495671</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.410339720874084</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.448458612119251</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>11.20439405010343</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>11.59263124806549</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.90103791717773</v>
+        <v>26.00471819856886</v>
       </c>
       <c r="C14">
-        <v>20.49457860796942</v>
+        <v>20.95488139341277</v>
       </c>
       <c r="D14">
-        <v>6.235274355822047</v>
+        <v>6.40139051656813</v>
       </c>
       <c r="E14">
-        <v>9.002738066040642</v>
+        <v>8.916008549771538</v>
       </c>
       <c r="F14">
-        <v>27.56924789012787</v>
+        <v>26.0575585123462</v>
       </c>
       <c r="G14">
-        <v>35.40337117648839</v>
+        <v>34.66922333431032</v>
       </c>
       <c r="H14">
-        <v>6.909547307591348</v>
+        <v>6.840635707366613</v>
       </c>
       <c r="J14">
-        <v>10.62143227936786</v>
+        <v>9.749390485189439</v>
       </c>
       <c r="K14">
-        <v>13.33495255697937</v>
+        <v>12.35899152588151</v>
       </c>
       <c r="L14">
-        <v>6.233554427579452</v>
+        <v>10.86984046443736</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.068170802441204</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.135451340754586</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>11.32392689210451</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>11.69372768183835</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.67807926518546</v>
+        <v>25.81588835357941</v>
       </c>
       <c r="C15">
-        <v>20.27364204383365</v>
+        <v>20.74630476434369</v>
       </c>
       <c r="D15">
-        <v>6.131211864321741</v>
+        <v>6.28249066688044</v>
       </c>
       <c r="E15">
-        <v>8.798915097640458</v>
+        <v>8.706513373909624</v>
       </c>
       <c r="F15">
-        <v>27.18224351326462</v>
+        <v>25.74964756757498</v>
       </c>
       <c r="G15">
-        <v>34.88788882513262</v>
+        <v>34.0290031836481</v>
       </c>
       <c r="H15">
-        <v>7.099452043513916</v>
+        <v>7.035577662946897</v>
       </c>
       <c r="J15">
-        <v>10.52983273830359</v>
+        <v>9.787862769889728</v>
       </c>
       <c r="K15">
-        <v>13.22536833776005</v>
+        <v>12.30120068111651</v>
       </c>
       <c r="L15">
-        <v>6.161087109879014</v>
+        <v>10.84986694889984</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.977428688192821</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.067510818086203</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>11.36137633957091</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>11.71862465876023</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.8274837437435</v>
+        <v>25.09272176808976</v>
       </c>
       <c r="C16">
-        <v>19.6327762547785</v>
+        <v>20.20790297094441</v>
       </c>
       <c r="D16">
-        <v>6.033959968849468</v>
+        <v>6.148668485815236</v>
       </c>
       <c r="E16">
-        <v>8.695684639133832</v>
+        <v>8.612947267000209</v>
       </c>
       <c r="F16">
-        <v>26.71062095200333</v>
+        <v>25.56877546371253</v>
       </c>
       <c r="G16">
-        <v>34.08360987850655</v>
+        <v>32.51712227529444</v>
       </c>
       <c r="H16">
-        <v>6.799496889072263</v>
+        <v>6.746639798309167</v>
       </c>
       <c r="J16">
-        <v>10.4495863518631</v>
+        <v>10.25904971456571</v>
       </c>
       <c r="K16">
-        <v>13.23299603275508</v>
+        <v>12.46196741989763</v>
       </c>
       <c r="L16">
-        <v>6.122685794338431</v>
+        <v>11.0454481416405</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.911754074523938</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.044100433300695</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11.43133505202804</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>11.72108753226481</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.46550472025645</v>
+        <v>24.7747383708558</v>
       </c>
       <c r="C17">
-        <v>19.47923540593994</v>
+        <v>20.11555563588223</v>
       </c>
       <c r="D17">
-        <v>6.167081186252234</v>
+        <v>6.279406315297434</v>
       </c>
       <c r="E17">
-        <v>9.054397425201639</v>
+        <v>8.990479936948953</v>
       </c>
       <c r="F17">
-        <v>27.09258376231207</v>
+        <v>26.04515195020974</v>
       </c>
       <c r="G17">
-        <v>34.42340389903342</v>
+        <v>32.50706111608997</v>
       </c>
       <c r="H17">
-        <v>6.068212334745733</v>
+        <v>6.015764158699572</v>
       </c>
       <c r="J17">
-        <v>10.56960808084276</v>
+        <v>10.59834340203649</v>
       </c>
       <c r="K17">
-        <v>13.47813091908799</v>
+        <v>12.73808391130122</v>
       </c>
       <c r="L17">
-        <v>6.252805583298649</v>
+        <v>11.28403705647301</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.034137322135404</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.17933381347742</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>11.42409852942527</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>11.67855302018986</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.49621255573615</v>
+        <v>24.7966036164729</v>
       </c>
       <c r="C18">
-        <v>19.7386250120009</v>
+        <v>20.43429689672204</v>
       </c>
       <c r="D18">
-        <v>6.52573669518738</v>
+        <v>6.655542407567268</v>
       </c>
       <c r="E18">
-        <v>9.954793534578551</v>
+        <v>9.915018815928992</v>
       </c>
       <c r="F18">
-        <v>28.24527213628177</v>
+        <v>27.17871465173361</v>
       </c>
       <c r="G18">
-        <v>35.77784637303445</v>
+        <v>33.62702136959628</v>
       </c>
       <c r="H18">
-        <v>4.943656534950072</v>
+        <v>4.880464097780884</v>
       </c>
       <c r="J18">
-        <v>10.87150814986553</v>
+        <v>10.96364576776885</v>
       </c>
       <c r="K18">
-        <v>13.94996845510975</v>
+        <v>13.16439744928817</v>
       </c>
       <c r="L18">
-        <v>6.617418350445517</v>
+        <v>11.604960698137</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.339960496490901</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.542952777217375</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>11.35652345548595</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>11.59123005944379</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.84054243092721</v>
+        <v>25.09684038471742</v>
       </c>
       <c r="C19">
-        <v>20.30750004009301</v>
+        <v>21.06714431168744</v>
       </c>
       <c r="D19">
-        <v>7.049810557765521</v>
+        <v>7.207560883222778</v>
       </c>
       <c r="E19">
-        <v>11.32496282472607</v>
+        <v>11.3087884065493</v>
       </c>
       <c r="F19">
-        <v>29.9135435549916</v>
+        <v>28.75791326986169</v>
       </c>
       <c r="G19">
-        <v>37.81689042721248</v>
+        <v>35.47725216023329</v>
       </c>
       <c r="H19">
-        <v>3.797639135251249</v>
+        <v>3.708579427042905</v>
       </c>
       <c r="J19">
-        <v>11.29404141503583</v>
+        <v>11.36445887585415</v>
       </c>
       <c r="K19">
-        <v>14.56938726160198</v>
+        <v>13.69001592822964</v>
       </c>
       <c r="L19">
-        <v>7.232633240484169</v>
+        <v>11.97684772998976</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.774148841447238</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.153372845065623</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>11.25404245970958</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>11.47781066526578</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.02821142805967</v>
+        <v>26.14952060660771</v>
       </c>
       <c r="C20">
-        <v>21.68625210101186</v>
+        <v>22.52257781555454</v>
       </c>
       <c r="D20">
-        <v>7.986285332406448</v>
+        <v>8.201825145261637</v>
       </c>
       <c r="E20">
-        <v>13.77903097595101</v>
+        <v>13.78972443233154</v>
       </c>
       <c r="F20">
-        <v>32.90801409115198</v>
+        <v>31.48127296697363</v>
       </c>
       <c r="G20">
-        <v>41.6093432459469</v>
+        <v>39.1856667818648</v>
       </c>
       <c r="H20">
-        <v>3.2485588959748</v>
+        <v>3.10668357767291</v>
       </c>
       <c r="J20">
-        <v>12.03381502822347</v>
+        <v>11.85245493087731</v>
       </c>
       <c r="K20">
-        <v>15.57815774248826</v>
+        <v>14.47299341677437</v>
       </c>
       <c r="L20">
-        <v>8.431308926778385</v>
+        <v>12.45482351847779</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.563358085505037</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.336153499386448</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.04626707954336</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>11.28030633175099</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.7599336000569</v>
+        <v>27.60855052628739</v>
       </c>
       <c r="C21">
-        <v>23.11409840211712</v>
+        <v>23.75439031223729</v>
       </c>
       <c r="D21">
-        <v>8.417588152154659</v>
+        <v>8.740646779075279</v>
       </c>
       <c r="E21">
-        <v>14.62929298162499</v>
+        <v>14.66103930280685</v>
       </c>
       <c r="F21">
-        <v>34.58615987998522</v>
+        <v>32.51741105613738</v>
       </c>
       <c r="G21">
-        <v>44.01509535623135</v>
+        <v>42.97622934009981</v>
       </c>
       <c r="H21">
-        <v>3.649486596504345</v>
+        <v>3.457966877809589</v>
       </c>
       <c r="J21">
-        <v>12.41600605586194</v>
+        <v>10.97072467858916</v>
       </c>
       <c r="K21">
-        <v>15.93251170285463</v>
+        <v>14.43644462133044</v>
       </c>
       <c r="L21">
-        <v>8.834483952209716</v>
+        <v>12.21027717821223</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.931746179348549</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.704313658853611</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>10.82390927680974</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>11.16411643913036</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.81466300316781</v>
+        <v>28.48623157123051</v>
       </c>
       <c r="C22">
-        <v>23.96564140666</v>
+        <v>24.46357049433495</v>
       </c>
       <c r="D22">
-        <v>8.652233960019039</v>
+        <v>9.047601317564032</v>
       </c>
       <c r="E22">
-        <v>15.0600960848051</v>
+        <v>15.10650585850487</v>
       </c>
       <c r="F22">
-        <v>35.5500797798136</v>
+        <v>33.05117563547341</v>
       </c>
       <c r="G22">
-        <v>45.41963688795288</v>
+        <v>45.35606324142565</v>
       </c>
       <c r="H22">
-        <v>3.896590868126608</v>
+        <v>3.67339564449933</v>
       </c>
       <c r="J22">
-        <v>12.6390092161649</v>
+        <v>10.32454373976549</v>
       </c>
       <c r="K22">
-        <v>16.13268135419328</v>
+        <v>14.37039800871658</v>
       </c>
       <c r="L22">
-        <v>9.036017553723338</v>
+        <v>12.02030346240668</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.14367025363591</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.883143858454549</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>10.68675973280249</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.10471300949461</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.25582942331473</v>
+        <v>28.03914816234178</v>
       </c>
       <c r="C23">
-        <v>23.51441394435913</v>
+        <v>24.11977112917239</v>
       </c>
       <c r="D23">
-        <v>8.52765797222461</v>
+        <v>8.874262875511366</v>
       </c>
       <c r="E23">
-        <v>14.8313942329743</v>
+        <v>14.86625003769191</v>
       </c>
       <c r="F23">
-        <v>35.03667930264374</v>
+        <v>32.81871349176222</v>
       </c>
       <c r="G23">
-        <v>44.67173738642862</v>
+        <v>43.90958497183063</v>
       </c>
       <c r="H23">
-        <v>3.765034243223422</v>
+        <v>3.560262151403082</v>
       </c>
       <c r="J23">
-        <v>12.5196091757519</v>
+        <v>10.79694861025794</v>
       </c>
       <c r="K23">
-        <v>16.02455468979577</v>
+        <v>14.43212748610664</v>
       </c>
       <c r="L23">
-        <v>8.928894840142327</v>
+        <v>12.13906778301146</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.05258459354906</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.789915223919152</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>10.75980050627564</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>11.13080475876462</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.04875138857967</v>
+        <v>26.1673155315554</v>
       </c>
       <c r="C24">
-        <v>21.73337843085435</v>
+        <v>22.57725097869955</v>
       </c>
       <c r="D24">
-        <v>8.041418379360227</v>
+        <v>8.258908398885806</v>
       </c>
       <c r="E24">
-        <v>13.93826047485242</v>
+        <v>13.95061889061781</v>
       </c>
       <c r="F24">
-        <v>33.06948468362854</v>
+        <v>31.63785611570114</v>
       </c>
       <c r="G24">
-        <v>41.80167380896982</v>
+        <v>39.34998100625851</v>
       </c>
       <c r="H24">
-        <v>3.259258854337604</v>
+        <v>3.116936516949087</v>
       </c>
       <c r="J24">
-        <v>12.07573743082068</v>
+        <v>11.90014520801045</v>
       </c>
       <c r="K24">
-        <v>15.64288957186829</v>
+        <v>14.53051480492215</v>
       </c>
       <c r="L24">
-        <v>8.51354001734742</v>
+        <v>12.49809778171193</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.60636779048138</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.418239281114319</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.03995358766244</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>11.27122971763351</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.47075498680519</v>
+        <v>23.76188225743844</v>
       </c>
       <c r="C25">
-        <v>19.65500018314227</v>
+        <v>20.39225008794544</v>
       </c>
       <c r="D25">
-        <v>7.486603970957731</v>
+        <v>7.675257597303322</v>
       </c>
       <c r="E25">
-        <v>12.9173862349778</v>
+        <v>12.9451745142078</v>
       </c>
       <c r="F25">
-        <v>30.90356814159813</v>
+        <v>29.75126349291117</v>
       </c>
       <c r="G25">
-        <v>38.63083360501845</v>
+        <v>36.35596147080265</v>
       </c>
       <c r="H25">
-        <v>2.695644374972949</v>
+        <v>2.60196268335147</v>
       </c>
       <c r="J25">
-        <v>11.61492354866703</v>
+        <v>11.62154545605513</v>
       </c>
       <c r="K25">
-        <v>15.28714017935221</v>
+        <v>14.38014009941824</v>
       </c>
       <c r="L25">
-        <v>8.045124411426</v>
+        <v>12.6956887812333</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.949526688000839</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.976969119720861</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.34995193120742</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.48881250261855</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
